--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Calr-Tshr.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Calr-Tshr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,55 +534,55 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>39.3061733199236</v>
+        <v>46.30782266666666</v>
       </c>
       <c r="H2">
-        <v>39.3061733199236</v>
+        <v>138.923468</v>
       </c>
       <c r="I2">
-        <v>0.04906231193447068</v>
+        <v>0.05564594959396952</v>
       </c>
       <c r="J2">
-        <v>0.04906231193447068</v>
+        <v>0.05564594959396952</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.5939366706792319</v>
+        <v>0.167924</v>
       </c>
       <c r="N2">
-        <v>0.5939366706792319</v>
+        <v>0.503772</v>
       </c>
       <c r="O2">
-        <v>0.1977856521474601</v>
+        <v>0.04291332780772943</v>
       </c>
       <c r="P2">
-        <v>0.1977856521474601</v>
+        <v>0.04291332780772943</v>
       </c>
       <c r="Q2">
-        <v>23.34537771877628</v>
+        <v>7.776194813477332</v>
       </c>
       <c r="R2">
-        <v>23.34537771877628</v>
+        <v>69.98575332129599</v>
       </c>
       <c r="S2">
-        <v>0.009703821361821397</v>
+        <v>0.002387952876098402</v>
       </c>
       <c r="T2">
-        <v>0.009703821361821397</v>
+        <v>0.002387952876098403</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,55 +596,55 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>39.3061733199236</v>
+        <v>46.30782266666666</v>
       </c>
       <c r="H3">
-        <v>39.3061733199236</v>
+        <v>138.923468</v>
       </c>
       <c r="I3">
-        <v>0.04906231193447068</v>
+        <v>0.05564594959396952</v>
       </c>
       <c r="J3">
-        <v>0.04906231193447068</v>
+        <v>0.05564594959396952</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.08487664756852251</v>
+        <v>0.6325493333333333</v>
       </c>
       <c r="N3">
-        <v>0.08487664756852251</v>
+        <v>1.897648</v>
       </c>
       <c r="O3">
-        <v>0.02826460112697223</v>
+        <v>0.1616492990632312</v>
       </c>
       <c r="P3">
-        <v>0.02826460112697223</v>
+        <v>0.1616492990632313</v>
       </c>
       <c r="Q3">
-        <v>3.336176220142418</v>
+        <v>29.29198235591821</v>
       </c>
       <c r="R3">
-        <v>3.336176220142418</v>
+        <v>263.627841203264</v>
       </c>
       <c r="S3">
-        <v>0.001386726677194903</v>
+        <v>0.008995128747573071</v>
       </c>
       <c r="T3">
-        <v>0.001386726677194903</v>
+        <v>0.008995128747573073</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,55 +658,55 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>39.3061733199236</v>
+        <v>46.30782266666666</v>
       </c>
       <c r="H4">
-        <v>39.3061733199236</v>
+        <v>138.923468</v>
       </c>
       <c r="I4">
-        <v>0.04906231193447068</v>
+        <v>0.05564594959396952</v>
       </c>
       <c r="J4">
-        <v>0.04906231193447068</v>
+        <v>0.05564594959396952</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>1.79621050391671</v>
+        <v>0.2560303333333334</v>
       </c>
       <c r="N4">
-        <v>1.79621050391671</v>
+        <v>0.7680910000000001</v>
       </c>
       <c r="O4">
-        <v>0.5981524351830307</v>
+        <v>0.06542908472318174</v>
       </c>
       <c r="P4">
-        <v>0.5981524351830307</v>
+        <v>0.06542908472318174</v>
       </c>
       <c r="Q4">
-        <v>70.60216138601751</v>
+        <v>11.85620727328756</v>
       </c>
       <c r="R4">
-        <v>70.60216138601751</v>
+        <v>106.705865459588</v>
       </c>
       <c r="S4">
-        <v>0.02934674135931311</v>
+        <v>0.003640863550485732</v>
       </c>
       <c r="T4">
-        <v>0.02934674135931311</v>
+        <v>0.003640863550485732</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,60 +720,60 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>39.3061733199236</v>
+        <v>46.30782266666666</v>
       </c>
       <c r="H5">
-        <v>39.3061733199236</v>
+        <v>138.923468</v>
       </c>
       <c r="I5">
-        <v>0.04906231193447068</v>
+        <v>0.05564594959396952</v>
       </c>
       <c r="J5">
-        <v>0.04906231193447068</v>
+        <v>0.05564594959396952</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.527907200538939</v>
+        <v>0.209825</v>
       </c>
       <c r="N5">
-        <v>0.527907200538939</v>
+        <v>0.629475</v>
       </c>
       <c r="O5">
-        <v>0.1757973115425368</v>
+        <v>0.05362121559310657</v>
       </c>
       <c r="P5">
-        <v>0.1757973115425368</v>
+        <v>0.05362121559310658</v>
       </c>
       <c r="Q5">
-        <v>20.7500119212192</v>
+        <v>9.716538891033332</v>
       </c>
       <c r="R5">
-        <v>20.7500119212192</v>
+        <v>87.4488500193</v>
       </c>
       <c r="S5">
-        <v>0.008625022536141265</v>
+        <v>0.002983803460061381</v>
       </c>
       <c r="T5">
-        <v>0.008625022536141265</v>
+        <v>0.002983803460061381</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,60 +782,60 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>334.921136616785</v>
+        <v>46.30782266666666</v>
       </c>
       <c r="H6">
-        <v>334.921136616785</v>
+        <v>138.923468</v>
       </c>
       <c r="I6">
-        <v>0.4180515143103763</v>
+        <v>0.05564594959396952</v>
       </c>
       <c r="J6">
-        <v>0.4180515143103763</v>
+        <v>0.05564594959396952</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.5939366706792319</v>
+        <v>1.862788333333333</v>
       </c>
       <c r="N6">
-        <v>0.5939366706792319</v>
+        <v>5.588365</v>
       </c>
       <c r="O6">
-        <v>0.1977856521474601</v>
+        <v>0.476039436797285</v>
       </c>
       <c r="P6">
-        <v>0.1977856521474601</v>
+        <v>0.4760394367972851</v>
       </c>
       <c r="Q6">
-        <v>198.9219448222775</v>
+        <v>86.26167180553554</v>
       </c>
       <c r="R6">
-        <v>198.9219448222775</v>
+        <v>776.3550462498199</v>
       </c>
       <c r="S6">
-        <v>0.08268459138911102</v>
+        <v>0.02648966650476336</v>
       </c>
       <c r="T6">
-        <v>0.08268459138911102</v>
+        <v>0.02648966650476336</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,55 +844,55 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>334.921136616785</v>
+        <v>46.30782266666666</v>
       </c>
       <c r="H7">
-        <v>334.921136616785</v>
+        <v>138.923468</v>
       </c>
       <c r="I7">
-        <v>0.4180515143103763</v>
+        <v>0.05564594959396952</v>
       </c>
       <c r="J7">
-        <v>0.4180515143103763</v>
+        <v>0.05564594959396952</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.08487664756852251</v>
+        <v>0.7839796666666666</v>
       </c>
       <c r="N7">
-        <v>0.08487664756852251</v>
+        <v>2.351939</v>
       </c>
       <c r="O7">
-        <v>0.02826460112697223</v>
+        <v>0.200347636015466</v>
       </c>
       <c r="P7">
-        <v>0.02826460112697223</v>
+        <v>0.200347636015466</v>
       </c>
       <c r="Q7">
-        <v>28.42698327587184</v>
+        <v>36.30439137827243</v>
       </c>
       <c r="R7">
-        <v>28.42698327587184</v>
+        <v>326.7395224044519</v>
       </c>
       <c r="S7">
-        <v>0.01181605930250951</v>
+        <v>0.01114853445498757</v>
       </c>
       <c r="T7">
-        <v>0.01181605930250951</v>
+        <v>0.01114853445498757</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,55 +906,55 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>334.921136616785</v>
+        <v>335.81602</v>
       </c>
       <c r="H8">
-        <v>334.921136616785</v>
+        <v>1007.44806</v>
       </c>
       <c r="I8">
-        <v>0.4180515143103763</v>
+        <v>0.4035344407418795</v>
       </c>
       <c r="J8">
-        <v>0.4180515143103763</v>
+        <v>0.4035344407418795</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>1.79621050391671</v>
+        <v>0.167924</v>
       </c>
       <c r="N8">
-        <v>1.79621050391671</v>
+        <v>0.503772</v>
       </c>
       <c r="O8">
-        <v>0.5981524351830307</v>
+        <v>0.04291332780772943</v>
       </c>
       <c r="P8">
-        <v>0.5981524351830307</v>
+        <v>0.04291332780772943</v>
       </c>
       <c r="Q8">
-        <v>601.5888635747926</v>
+        <v>56.39156934248</v>
       </c>
       <c r="R8">
-        <v>601.5888635747926</v>
+        <v>507.52412408232</v>
       </c>
       <c r="S8">
-        <v>0.2500585313167052</v>
+        <v>0.01731700573726504</v>
       </c>
       <c r="T8">
-        <v>0.2500585313167052</v>
+        <v>0.01731700573726504</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,122 +968,122 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>334.921136616785</v>
+        <v>335.81602</v>
       </c>
       <c r="H9">
-        <v>334.921136616785</v>
+        <v>1007.44806</v>
       </c>
       <c r="I9">
-        <v>0.4180515143103763</v>
+        <v>0.4035344407418795</v>
       </c>
       <c r="J9">
-        <v>0.4180515143103763</v>
+        <v>0.4035344407418795</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.527907200538939</v>
+        <v>0.6325493333333333</v>
       </c>
       <c r="N9">
-        <v>0.527907200538939</v>
+        <v>1.897648</v>
       </c>
       <c r="O9">
-        <v>0.1757973115425368</v>
+        <v>0.1616492990632312</v>
       </c>
       <c r="P9">
-        <v>0.1757973115425368</v>
+        <v>0.1616492990632313</v>
       </c>
       <c r="Q9">
-        <v>176.8072796326865</v>
+        <v>212.4201995736533</v>
       </c>
       <c r="R9">
-        <v>176.8072796326865</v>
+        <v>1911.78179616288</v>
       </c>
       <c r="S9">
-        <v>0.07349233230205053</v>
+        <v>0.06523105949379784</v>
       </c>
       <c r="T9">
-        <v>0.07349233230205053</v>
+        <v>0.06523105949379786</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>21</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>131.021230820363</v>
+        <v>335.81602</v>
       </c>
       <c r="H10">
-        <v>131.021230820363</v>
+        <v>1007.44806</v>
       </c>
       <c r="I10">
-        <v>0.1635418549708727</v>
+        <v>0.4035344407418795</v>
       </c>
       <c r="J10">
-        <v>0.1635418549708727</v>
+        <v>0.4035344407418795</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.5939366706792319</v>
+        <v>0.2560303333333334</v>
       </c>
       <c r="N10">
-        <v>0.5939366706792319</v>
+        <v>0.7680910000000001</v>
       </c>
       <c r="O10">
-        <v>0.1977856521474601</v>
+        <v>0.06542908472318174</v>
       </c>
       <c r="P10">
-        <v>0.1977856521474601</v>
+        <v>0.06542908472318174</v>
       </c>
       <c r="Q10">
-        <v>77.81831362174158</v>
+        <v>85.97908753927335</v>
       </c>
       <c r="R10">
-        <v>77.81831362174158</v>
+        <v>773.8117878534601</v>
       </c>
       <c r="S10">
-        <v>0.0323462324388194</v>
+        <v>0.02640288911202219</v>
       </c>
       <c r="T10">
-        <v>0.0323462324388194</v>
+        <v>0.02640288911202219</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1095,57 +1095,57 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>131.021230820363</v>
+        <v>335.81602</v>
       </c>
       <c r="H11">
-        <v>131.021230820363</v>
+        <v>1007.44806</v>
       </c>
       <c r="I11">
-        <v>0.1635418549708727</v>
+        <v>0.4035344407418795</v>
       </c>
       <c r="J11">
-        <v>0.1635418549708727</v>
+        <v>0.4035344407418795</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.08487664756852251</v>
+        <v>0.209825</v>
       </c>
       <c r="N11">
-        <v>0.08487664756852251</v>
+        <v>0.629475</v>
       </c>
       <c r="O11">
-        <v>0.02826460112697223</v>
+        <v>0.05362121559310657</v>
       </c>
       <c r="P11">
-        <v>0.02826460112697223</v>
+        <v>0.05362121559310658</v>
       </c>
       <c r="Q11">
-        <v>11.12064283233399</v>
+        <v>70.46259639650002</v>
       </c>
       <c r="R11">
-        <v>11.12064283233399</v>
+        <v>634.1633675685</v>
       </c>
       <c r="S11">
-        <v>0.004622445298316858</v>
+        <v>0.02163800724626401</v>
       </c>
       <c r="T11">
-        <v>0.004622445298316858</v>
+        <v>0.02163800724626401</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1157,57 +1157,57 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>131.021230820363</v>
+        <v>335.81602</v>
       </c>
       <c r="H12">
-        <v>131.021230820363</v>
+        <v>1007.44806</v>
       </c>
       <c r="I12">
-        <v>0.1635418549708727</v>
+        <v>0.4035344407418795</v>
       </c>
       <c r="J12">
-        <v>0.1635418549708727</v>
+        <v>0.4035344407418795</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.79621050391671</v>
+        <v>1.862788333333333</v>
       </c>
       <c r="N12">
-        <v>1.79621050391671</v>
+        <v>5.588365</v>
       </c>
       <c r="O12">
-        <v>0.5981524351830307</v>
+        <v>0.476039436797285</v>
       </c>
       <c r="P12">
-        <v>0.5981524351830307</v>
+        <v>0.4760394367972851</v>
       </c>
       <c r="Q12">
-        <v>235.3417110356318</v>
+        <v>625.5541642024334</v>
       </c>
       <c r="R12">
-        <v>235.3417110356318</v>
+        <v>5629.9874778219</v>
       </c>
       <c r="S12">
-        <v>0.09782295880517757</v>
+        <v>0.1920983078990717</v>
       </c>
       <c r="T12">
-        <v>0.09782295880517757</v>
+        <v>0.1920983078990717</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1219,57 +1219,57 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>131.021230820363</v>
+        <v>335.81602</v>
       </c>
       <c r="H13">
-        <v>131.021230820363</v>
+        <v>1007.44806</v>
       </c>
       <c r="I13">
-        <v>0.1635418549708727</v>
+        <v>0.4035344407418795</v>
       </c>
       <c r="J13">
-        <v>0.1635418549708727</v>
+        <v>0.4035344407418795</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.527907200538939</v>
+        <v>0.7839796666666666</v>
       </c>
       <c r="N13">
-        <v>0.527907200538939</v>
+        <v>2.351939</v>
       </c>
       <c r="O13">
-        <v>0.1757973115425368</v>
+        <v>0.200347636015466</v>
       </c>
       <c r="P13">
-        <v>0.1757973115425368</v>
+        <v>0.200347636015466</v>
       </c>
       <c r="Q13">
-        <v>69.167051173544</v>
+        <v>263.2729314209267</v>
       </c>
       <c r="R13">
-        <v>69.167051173544</v>
+        <v>2369.45638278834</v>
       </c>
       <c r="S13">
-        <v>0.02875021842855889</v>
+        <v>0.08084717125345871</v>
       </c>
       <c r="T13">
-        <v>0.02875021842855889</v>
+        <v>0.08084717125345871</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1278,60 +1278,60 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>131.503878934824</v>
+        <v>149.4350406666667</v>
       </c>
       <c r="H14">
-        <v>131.503878934824</v>
+        <v>448.305122</v>
       </c>
       <c r="I14">
-        <v>0.1641443006008132</v>
+        <v>0.1795691151442488</v>
       </c>
       <c r="J14">
-        <v>0.1641443006008132</v>
+        <v>0.1795691151442488</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.5939366706792319</v>
+        <v>0.167924</v>
       </c>
       <c r="N14">
-        <v>0.5939366706792319</v>
+        <v>0.503772</v>
       </c>
       <c r="O14">
-        <v>0.1977856521474601</v>
+        <v>0.04291332780772943</v>
       </c>
       <c r="P14">
-        <v>0.1977856521474601</v>
+        <v>0.04291332780772943</v>
       </c>
       <c r="Q14">
-        <v>78.10497603595415</v>
+        <v>25.09372976890933</v>
       </c>
       <c r="R14">
-        <v>78.10497603595415</v>
+        <v>225.843567920184</v>
       </c>
       <c r="S14">
-        <v>0.03246538754062055</v>
+        <v>0.007705908302329058</v>
       </c>
       <c r="T14">
-        <v>0.03246538754062055</v>
+        <v>0.007705908302329059</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1340,60 +1340,60 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>131.503878934824</v>
+        <v>149.4350406666667</v>
       </c>
       <c r="H15">
-        <v>131.503878934824</v>
+        <v>448.305122</v>
       </c>
       <c r="I15">
-        <v>0.1641443006008132</v>
+        <v>0.1795691151442488</v>
       </c>
       <c r="J15">
-        <v>0.1641443006008132</v>
+        <v>0.1795691151442488</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.08487664756852251</v>
+        <v>0.6325493333333333</v>
       </c>
       <c r="N15">
-        <v>0.08487664756852251</v>
+        <v>1.897648</v>
       </c>
       <c r="O15">
-        <v>0.02826460112697223</v>
+        <v>0.1616492990632312</v>
       </c>
       <c r="P15">
-        <v>0.02826460112697223</v>
+        <v>0.1616492990632313</v>
       </c>
       <c r="Q15">
-        <v>11.16160838624471</v>
+        <v>94.52503535033954</v>
       </c>
       <c r="R15">
-        <v>11.16160838624471</v>
+        <v>850.7253181530559</v>
       </c>
       <c r="S15">
-        <v>0.004639473183747813</v>
+        <v>0.02902722159647247</v>
       </c>
       <c r="T15">
-        <v>0.004639473183747813</v>
+        <v>0.02902722159647248</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,184 +1402,184 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>131.503878934824</v>
+        <v>149.4350406666667</v>
       </c>
       <c r="H16">
-        <v>131.503878934824</v>
+        <v>448.305122</v>
       </c>
       <c r="I16">
-        <v>0.1641443006008132</v>
+        <v>0.1795691151442488</v>
       </c>
       <c r="J16">
-        <v>0.1641443006008132</v>
+        <v>0.1795691151442488</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>1.79621050391671</v>
+        <v>0.2560303333333334</v>
       </c>
       <c r="N16">
-        <v>1.79621050391671</v>
+        <v>0.7680910000000001</v>
       </c>
       <c r="O16">
-        <v>0.5981524351830307</v>
+        <v>0.06542908472318174</v>
       </c>
       <c r="P16">
-        <v>0.5981524351830307</v>
+        <v>0.06542908472318174</v>
       </c>
       <c r="Q16">
-        <v>236.2086486485223</v>
+        <v>38.25990327356689</v>
       </c>
       <c r="R16">
-        <v>236.2086486485223</v>
+        <v>344.3391294621021</v>
       </c>
       <c r="S16">
-        <v>0.09818331312579182</v>
+        <v>0.01174904284843983</v>
       </c>
       <c r="T16">
-        <v>0.09818331312579182</v>
+        <v>0.01174904284843983</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>25</v>
-      </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>131.503878934824</v>
+        <v>149.4350406666667</v>
       </c>
       <c r="H17">
-        <v>131.503878934824</v>
+        <v>448.305122</v>
       </c>
       <c r="I17">
-        <v>0.1641443006008132</v>
+        <v>0.1795691151442488</v>
       </c>
       <c r="J17">
-        <v>0.1641443006008132</v>
+        <v>0.1795691151442488</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.527907200538939</v>
+        <v>0.209825</v>
       </c>
       <c r="N17">
-        <v>0.527907200538939</v>
+        <v>0.629475</v>
       </c>
       <c r="O17">
-        <v>0.1757973115425368</v>
+        <v>0.05362121559310657</v>
       </c>
       <c r="P17">
-        <v>0.1757973115425368</v>
+        <v>0.05362121559310658</v>
       </c>
       <c r="Q17">
-        <v>69.42184458849449</v>
+        <v>31.35520740788333</v>
       </c>
       <c r="R17">
-        <v>69.42184458849449</v>
+        <v>282.19686667095</v>
       </c>
       <c r="S17">
-        <v>0.02885612675065297</v>
+        <v>0.00962871423701314</v>
       </c>
       <c r="T17">
-        <v>0.02885612675065297</v>
+        <v>0.009628714237013144</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="B18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" t="s">
-        <v>21</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>106.672122579769</v>
+        <v>149.4350406666667</v>
       </c>
       <c r="H18">
-        <v>106.672122579769</v>
+        <v>448.305122</v>
       </c>
       <c r="I18">
-        <v>0.1331490834817011</v>
+        <v>0.1795691151442488</v>
       </c>
       <c r="J18">
-        <v>0.1331490834817011</v>
+        <v>0.1795691151442488</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.5939366706792319</v>
+        <v>1.862788333333333</v>
       </c>
       <c r="N18">
-        <v>0.5939366706792319</v>
+        <v>5.588365</v>
       </c>
       <c r="O18">
-        <v>0.1977856521474601</v>
+        <v>0.476039436797285</v>
       </c>
       <c r="P18">
-        <v>0.1977856521474601</v>
+        <v>0.4760394367972851</v>
       </c>
       <c r="Q18">
-        <v>63.35648533931492</v>
+        <v>278.3658503450588</v>
       </c>
       <c r="R18">
-        <v>63.35648533931492</v>
+        <v>2505.29265310553</v>
       </c>
       <c r="S18">
-        <v>0.02633497830926485</v>
+        <v>0.085481980439455</v>
       </c>
       <c r="T18">
-        <v>0.02633497830926485</v>
+        <v>0.08548198043945501</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,60 +1588,60 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>106.672122579769</v>
+        <v>149.4350406666667</v>
       </c>
       <c r="H19">
-        <v>106.672122579769</v>
+        <v>448.305122</v>
       </c>
       <c r="I19">
-        <v>0.1331490834817011</v>
+        <v>0.1795691151442488</v>
       </c>
       <c r="J19">
-        <v>0.1331490834817011</v>
+        <v>0.1795691151442488</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.08487664756852251</v>
+        <v>0.7839796666666666</v>
       </c>
       <c r="N19">
-        <v>0.08487664756852251</v>
+        <v>2.351939</v>
       </c>
       <c r="O19">
-        <v>0.02826460112697223</v>
+        <v>0.200347636015466</v>
       </c>
       <c r="P19">
-        <v>0.02826460112697223</v>
+        <v>0.200347636015466</v>
       </c>
       <c r="Q19">
-        <v>9.053972153589285</v>
+        <v>117.1540333701731</v>
       </c>
       <c r="R19">
-        <v>9.053972153589285</v>
+        <v>1054.386300331558</v>
       </c>
       <c r="S19">
-        <v>0.003763405735032208</v>
+        <v>0.03597624772053926</v>
       </c>
       <c r="T19">
-        <v>0.003763405735032208</v>
+        <v>0.03597624772053926</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
@@ -1650,60 +1650,60 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>106.672122579769</v>
+        <v>132.544937</v>
       </c>
       <c r="H20">
-        <v>106.672122579769</v>
+        <v>397.634811</v>
       </c>
       <c r="I20">
-        <v>0.1331490834817011</v>
+        <v>0.1592730657264732</v>
       </c>
       <c r="J20">
-        <v>0.1331490834817011</v>
+        <v>0.1592730657264732</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M20">
-        <v>1.79621050391671</v>
+        <v>0.167924</v>
       </c>
       <c r="N20">
-        <v>1.79621050391671</v>
+        <v>0.503772</v>
       </c>
       <c r="O20">
-        <v>0.5981524351830307</v>
+        <v>0.04291332780772943</v>
       </c>
       <c r="P20">
-        <v>0.5981524351830307</v>
+        <v>0.04291332780772943</v>
       </c>
       <c r="Q20">
-        <v>191.6055870528719</v>
+        <v>22.257476000788</v>
       </c>
       <c r="R20">
-        <v>191.6055870528719</v>
+        <v>200.317284007092</v>
       </c>
       <c r="S20">
-        <v>0.07964344852696814</v>
+        <v>0.006834937280462181</v>
       </c>
       <c r="T20">
-        <v>0.07964344852696814</v>
+        <v>0.006834937280462181</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
@@ -1712,60 +1712,60 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>106.672122579769</v>
+        <v>132.544937</v>
       </c>
       <c r="H21">
-        <v>106.672122579769</v>
+        <v>397.634811</v>
       </c>
       <c r="I21">
-        <v>0.1331490834817011</v>
+        <v>0.1592730657264732</v>
       </c>
       <c r="J21">
-        <v>0.1331490834817011</v>
+        <v>0.1592730657264732</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.527907200538939</v>
+        <v>0.6325493333333333</v>
       </c>
       <c r="N21">
-        <v>0.527907200538939</v>
+        <v>1.897648</v>
       </c>
       <c r="O21">
-        <v>0.1757973115425368</v>
+        <v>0.1616492990632312</v>
       </c>
       <c r="P21">
-        <v>0.1757973115425368</v>
+        <v>0.1616492990632313</v>
       </c>
       <c r="Q21">
-        <v>56.3129816066324</v>
+        <v>83.84121153605867</v>
       </c>
       <c r="R21">
-        <v>56.3129816066324</v>
+        <v>754.570903824528</v>
       </c>
       <c r="S21">
-        <v>0.02340725091043585</v>
+        <v>0.02574637943433636</v>
       </c>
       <c r="T21">
-        <v>0.02340725091043585</v>
+        <v>0.02574637943433636</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,60 +1774,60 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>57.7234625843292</v>
+        <v>132.544937</v>
       </c>
       <c r="H22">
-        <v>57.7234625843292</v>
+        <v>397.634811</v>
       </c>
       <c r="I22">
-        <v>0.07205093470176584</v>
+        <v>0.1592730657264732</v>
       </c>
       <c r="J22">
-        <v>0.07205093470176584</v>
+        <v>0.1592730657264732</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M22">
-        <v>0.5939366706792319</v>
+        <v>0.2560303333333334</v>
       </c>
       <c r="N22">
-        <v>0.5939366706792319</v>
+        <v>0.7680910000000001</v>
       </c>
       <c r="O22">
-        <v>0.1977856521474601</v>
+        <v>0.06542908472318174</v>
       </c>
       <c r="P22">
-        <v>0.1977856521474601</v>
+        <v>0.06542908472318174</v>
       </c>
       <c r="Q22">
-        <v>34.2840811874137</v>
+        <v>33.93552440175567</v>
       </c>
       <c r="R22">
-        <v>34.2840811874137</v>
+        <v>305.4197196158011</v>
       </c>
       <c r="S22">
-        <v>0.01425064110782282</v>
+        <v>0.01042109091153831</v>
       </c>
       <c r="T22">
-        <v>0.01425064110782282</v>
+        <v>0.01042109091153831</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1839,57 +1839,57 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>57.7234625843292</v>
+        <v>132.544937</v>
       </c>
       <c r="H23">
-        <v>57.7234625843292</v>
+        <v>397.634811</v>
       </c>
       <c r="I23">
-        <v>0.07205093470176584</v>
+        <v>0.1592730657264732</v>
       </c>
       <c r="J23">
-        <v>0.07205093470176584</v>
+        <v>0.1592730657264732</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.08487664756852251</v>
+        <v>0.209825</v>
       </c>
       <c r="N23">
-        <v>0.08487664756852251</v>
+        <v>0.629475</v>
       </c>
       <c r="O23">
-        <v>0.02826460112697223</v>
+        <v>0.05362121559310657</v>
       </c>
       <c r="P23">
-        <v>0.02826460112697223</v>
+        <v>0.05362121559310658</v>
       </c>
       <c r="Q23">
-        <v>4.899373990204904</v>
+        <v>27.811241406025</v>
       </c>
       <c r="R23">
-        <v>4.899373990204904</v>
+        <v>250.301172654225</v>
       </c>
       <c r="S23">
-        <v>0.002036490930170934</v>
+        <v>0.008540415395494255</v>
       </c>
       <c r="T23">
-        <v>0.002036490930170934</v>
+        <v>0.008540415395494256</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
@@ -1901,57 +1901,57 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>57.7234625843292</v>
+        <v>132.544937</v>
       </c>
       <c r="H24">
-        <v>57.7234625843292</v>
+        <v>397.634811</v>
       </c>
       <c r="I24">
-        <v>0.07205093470176584</v>
+        <v>0.1592730657264732</v>
       </c>
       <c r="J24">
-        <v>0.07205093470176584</v>
+        <v>0.1592730657264732</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>1.79621050391671</v>
+        <v>1.862788333333333</v>
       </c>
       <c r="N24">
-        <v>1.79621050391671</v>
+        <v>5.588365</v>
       </c>
       <c r="O24">
-        <v>0.5981524351830307</v>
+        <v>0.476039436797285</v>
       </c>
       <c r="P24">
-        <v>0.5981524351830307</v>
+        <v>0.4760394367972851</v>
       </c>
       <c r="Q24">
-        <v>103.6834898164153</v>
+        <v>246.9031622860017</v>
       </c>
       <c r="R24">
-        <v>103.6834898164153</v>
+        <v>2222.128460574015</v>
       </c>
       <c r="S24">
-        <v>0.04309744204907477</v>
+        <v>0.07582026050540727</v>
       </c>
       <c r="T24">
-        <v>0.04309744204907477</v>
+        <v>0.07582026050540729</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1963,52 +1963,796 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>57.7234625843292</v>
+        <v>132.544937</v>
       </c>
       <c r="H25">
-        <v>57.7234625843292</v>
+        <v>397.634811</v>
       </c>
       <c r="I25">
-        <v>0.07205093470176584</v>
+        <v>0.1592730657264732</v>
       </c>
       <c r="J25">
-        <v>0.07205093470176584</v>
+        <v>0.1592730657264732</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.527907200538939</v>
+        <v>0.7839796666666666</v>
       </c>
       <c r="N25">
-        <v>0.527907200538939</v>
+        <v>2.351939</v>
       </c>
       <c r="O25">
-        <v>0.1757973115425368</v>
+        <v>0.200347636015466</v>
       </c>
       <c r="P25">
-        <v>0.1757973115425368</v>
+        <v>0.200347636015466</v>
       </c>
       <c r="Q25">
-        <v>30.47263153830742</v>
+        <v>103.9125355276143</v>
       </c>
       <c r="R25">
-        <v>30.47263153830742</v>
+        <v>935.212819748529</v>
       </c>
       <c r="S25">
-        <v>0.01266636061469731</v>
+        <v>0.03190998219923485</v>
       </c>
       <c r="T25">
-        <v>0.01266636061469731</v>
+        <v>0.03190998219923485</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>108.3486913333333</v>
+      </c>
+      <c r="H26">
+        <v>325.046074</v>
+      </c>
+      <c r="I26">
+        <v>0.1301975664005284</v>
+      </c>
+      <c r="J26">
+        <v>0.1301975664005284</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M26">
+        <v>0.167924</v>
+      </c>
+      <c r="N26">
+        <v>0.503772</v>
+      </c>
+      <c r="O26">
+        <v>0.04291332780772943</v>
+      </c>
+      <c r="P26">
+        <v>0.04291332780772943</v>
+      </c>
+      <c r="Q26">
+        <v>18.19434564345866</v>
+      </c>
+      <c r="R26">
+        <v>163.749110791128</v>
+      </c>
+      <c r="S26">
+        <v>0.005587210846714495</v>
+      </c>
+      <c r="T26">
+        <v>0.005587210846714496</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>108.3486913333333</v>
+      </c>
+      <c r="H27">
+        <v>325.046074</v>
+      </c>
+      <c r="I27">
+        <v>0.1301975664005284</v>
+      </c>
+      <c r="J27">
+        <v>0.1301975664005284</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>0.6325493333333333</v>
+      </c>
+      <c r="N27">
+        <v>1.897648</v>
+      </c>
+      <c r="O27">
+        <v>0.1616492990632312</v>
+      </c>
+      <c r="P27">
+        <v>0.1616492990632313</v>
+      </c>
+      <c r="Q27">
+        <v>68.53589247043909</v>
+      </c>
+      <c r="R27">
+        <v>616.8230322339519</v>
+      </c>
+      <c r="S27">
+        <v>0.02104634534838393</v>
+      </c>
+      <c r="T27">
+        <v>0.02104634534838393</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>108.3486913333333</v>
+      </c>
+      <c r="H28">
+        <v>325.046074</v>
+      </c>
+      <c r="I28">
+        <v>0.1301975664005284</v>
+      </c>
+      <c r="J28">
+        <v>0.1301975664005284</v>
+      </c>
+      <c r="K28">
+        <v>2</v>
+      </c>
+      <c r="L28">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M28">
+        <v>0.2560303333333334</v>
+      </c>
+      <c r="N28">
+        <v>0.7680910000000001</v>
+      </c>
+      <c r="O28">
+        <v>0.06542908472318174</v>
+      </c>
+      <c r="P28">
+        <v>0.06542908472318174</v>
+      </c>
+      <c r="Q28">
+        <v>27.74055155830378</v>
+      </c>
+      <c r="R28">
+        <v>249.664964024734</v>
+      </c>
+      <c r="S28">
+        <v>0.008518707602772254</v>
+      </c>
+      <c r="T28">
+        <v>0.008518707602772254</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>108.3486913333333</v>
+      </c>
+      <c r="H29">
+        <v>325.046074</v>
+      </c>
+      <c r="I29">
+        <v>0.1301975664005284</v>
+      </c>
+      <c r="J29">
+        <v>0.1301975664005284</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>0.209825</v>
+      </c>
+      <c r="N29">
+        <v>0.629475</v>
+      </c>
+      <c r="O29">
+        <v>0.05362121559310657</v>
+      </c>
+      <c r="P29">
+        <v>0.05362121559310658</v>
+      </c>
+      <c r="Q29">
+        <v>22.73426415901666</v>
+      </c>
+      <c r="R29">
+        <v>204.60837743115</v>
+      </c>
+      <c r="S29">
+        <v>0.006981351777660543</v>
+      </c>
+      <c r="T29">
+        <v>0.006981351777660544</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>108.3486913333333</v>
+      </c>
+      <c r="H30">
+        <v>325.046074</v>
+      </c>
+      <c r="I30">
+        <v>0.1301975664005284</v>
+      </c>
+      <c r="J30">
+        <v>0.1301975664005284</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>1.862788333333333</v>
+      </c>
+      <c r="N30">
+        <v>5.588365</v>
+      </c>
+      <c r="O30">
+        <v>0.476039436797285</v>
+      </c>
+      <c r="P30">
+        <v>0.4760394367972851</v>
+      </c>
+      <c r="Q30">
+        <v>201.8306781476678</v>
+      </c>
+      <c r="R30">
+        <v>1816.47610332901</v>
+      </c>
+      <c r="S30">
+        <v>0.06197917618168467</v>
+      </c>
+      <c r="T30">
+        <v>0.06197917618168468</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>108.3486913333333</v>
+      </c>
+      <c r="H31">
+        <v>325.046074</v>
+      </c>
+      <c r="I31">
+        <v>0.1301975664005284</v>
+      </c>
+      <c r="J31">
+        <v>0.1301975664005284</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>0.7839796666666666</v>
+      </c>
+      <c r="N31">
+        <v>2.351939</v>
+      </c>
+      <c r="O31">
+        <v>0.200347636015466</v>
+      </c>
+      <c r="P31">
+        <v>0.200347636015466</v>
+      </c>
+      <c r="Q31">
+        <v>84.94317091527621</v>
+      </c>
+      <c r="R31">
+        <v>764.4885382374858</v>
+      </c>
+      <c r="S31">
+        <v>0.02608477464331254</v>
+      </c>
+      <c r="T31">
+        <v>0.02608477464331254</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>59.73425133333333</v>
+      </c>
+      <c r="H32">
+        <v>179.202754</v>
+      </c>
+      <c r="I32">
+        <v>0.07177986239290053</v>
+      </c>
+      <c r="J32">
+        <v>0.07177986239290053</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M32">
+        <v>0.167924</v>
+      </c>
+      <c r="N32">
+        <v>0.503772</v>
+      </c>
+      <c r="O32">
+        <v>0.04291332780772943</v>
+      </c>
+      <c r="P32">
+        <v>0.04291332780772943</v>
+      </c>
+      <c r="Q32">
+        <v>10.03081442089867</v>
+      </c>
+      <c r="R32">
+        <v>90.277329788088</v>
+      </c>
+      <c r="S32">
+        <v>0.00308031276486025</v>
+      </c>
+      <c r="T32">
+        <v>0.003080312764860251</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>59.73425133333333</v>
+      </c>
+      <c r="H33">
+        <v>179.202754</v>
+      </c>
+      <c r="I33">
+        <v>0.07177986239290053</v>
+      </c>
+      <c r="J33">
+        <v>0.07177986239290053</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>0.6325493333333333</v>
+      </c>
+      <c r="N33">
+        <v>1.897648</v>
+      </c>
+      <c r="O33">
+        <v>0.1616492990632312</v>
+      </c>
+      <c r="P33">
+        <v>0.1616492990632313</v>
+      </c>
+      <c r="Q33">
+        <v>37.78486085806578</v>
+      </c>
+      <c r="R33">
+        <v>340.063747722592</v>
+      </c>
+      <c r="S33">
+        <v>0.01160316444266756</v>
+      </c>
+      <c r="T33">
+        <v>0.01160316444266757</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>59.73425133333333</v>
+      </c>
+      <c r="H34">
+        <v>179.202754</v>
+      </c>
+      <c r="I34">
+        <v>0.07177986239290053</v>
+      </c>
+      <c r="J34">
+        <v>0.07177986239290053</v>
+      </c>
+      <c r="K34">
+        <v>2</v>
+      </c>
+      <c r="L34">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M34">
+        <v>0.2560303333333334</v>
+      </c>
+      <c r="N34">
+        <v>0.7680910000000001</v>
+      </c>
+      <c r="O34">
+        <v>0.06542908472318174</v>
+      </c>
+      <c r="P34">
+        <v>0.06542908472318174</v>
+      </c>
+      <c r="Q34">
+        <v>15.29378028029045</v>
+      </c>
+      <c r="R34">
+        <v>137.644022522614</v>
+      </c>
+      <c r="S34">
+        <v>0.004696490697923415</v>
+      </c>
+      <c r="T34">
+        <v>0.004696490697923415</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>59.73425133333333</v>
+      </c>
+      <c r="H35">
+        <v>179.202754</v>
+      </c>
+      <c r="I35">
+        <v>0.07177986239290053</v>
+      </c>
+      <c r="J35">
+        <v>0.07177986239290053</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>0.209825</v>
+      </c>
+      <c r="N35">
+        <v>0.629475</v>
+      </c>
+      <c r="O35">
+        <v>0.05362121559310657</v>
+      </c>
+      <c r="P35">
+        <v>0.05362121559310658</v>
+      </c>
+      <c r="Q35">
+        <v>12.53373928601667</v>
+      </c>
+      <c r="R35">
+        <v>112.80365357415</v>
+      </c>
+      <c r="S35">
+        <v>0.003848923476613242</v>
+      </c>
+      <c r="T35">
+        <v>0.003848923476613243</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>59.73425133333333</v>
+      </c>
+      <c r="H36">
+        <v>179.202754</v>
+      </c>
+      <c r="I36">
+        <v>0.07177986239290053</v>
+      </c>
+      <c r="J36">
+        <v>0.07177986239290053</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>1.862788333333333</v>
+      </c>
+      <c r="N36">
+        <v>5.588365</v>
+      </c>
+      <c r="O36">
+        <v>0.476039436797285</v>
+      </c>
+      <c r="P36">
+        <v>0.4760394367972851</v>
+      </c>
+      <c r="Q36">
+        <v>111.2722664841344</v>
+      </c>
+      <c r="R36">
+        <v>1001.45039835721</v>
+      </c>
+      <c r="S36">
+        <v>0.03417004526690299</v>
+      </c>
+      <c r="T36">
+        <v>0.03417004526690299</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>59.73425133333333</v>
+      </c>
+      <c r="H37">
+        <v>179.202754</v>
+      </c>
+      <c r="I37">
+        <v>0.07177986239290053</v>
+      </c>
+      <c r="J37">
+        <v>0.07177986239290053</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>0.7839796666666666</v>
+      </c>
+      <c r="N37">
+        <v>2.351939</v>
+      </c>
+      <c r="O37">
+        <v>0.200347636015466</v>
+      </c>
+      <c r="P37">
+        <v>0.200347636015466</v>
+      </c>
+      <c r="Q37">
+        <v>46.83043844888955</v>
+      </c>
+      <c r="R37">
+        <v>421.473946040006</v>
+      </c>
+      <c r="S37">
+        <v>0.01438092574393307</v>
+      </c>
+      <c r="T37">
+        <v>0.01438092574393307</v>
       </c>
     </row>
   </sheetData>
